--- a/raw_data/20200818_saline/20200818_Sensor0_Test_90.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_90.xlsx
@@ -1,900 +1,1316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53AFD61-E5E6-4D73-A1F5-67F429B5ADE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>80102.929067</v>
+        <v>80102.929067000005</v>
       </c>
       <c r="B2" s="1">
-        <v>22.250814</v>
+        <v>22.250813999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>906.450000</v>
+        <v>906.45</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.629000</v>
+        <v>-194.62899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>80113.412471</v>
+        <v>80113.412471000003</v>
       </c>
       <c r="G2" s="1">
         <v>22.253726</v>
       </c>
       <c r="H2" s="1">
-        <v>923.597000</v>
+        <v>923.59699999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-165.530000</v>
+        <v>-165.53</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>80123.586938</v>
+        <v>80123.586937999993</v>
       </c>
       <c r="L2" s="1">
-        <v>22.256552</v>
+        <v>22.256551999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>946.473000</v>
+        <v>946.47299999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.318000</v>
+        <v>-119.318</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>80133.799532</v>
+        <v>80133.799532000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>22.259389</v>
+        <v>22.259388999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>953.439000</v>
+        <v>953.43899999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.196000</v>
+        <v>-104.196</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>80144.067215</v>
+        <v>80144.067215000003</v>
       </c>
       <c r="V2" s="1">
         <v>22.262241</v>
       </c>
       <c r="W2" s="1">
-        <v>960.186000</v>
+        <v>960.18600000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.477900</v>
+        <v>-90.477900000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>80154.186931</v>
+        <v>80154.186931000004</v>
       </c>
       <c r="AA2" s="1">
-        <v>22.265052</v>
+        <v>22.265052000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>967.662000</v>
+        <v>967.66200000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.784200</v>
+        <v>-80.784199999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>80164.861494</v>
+        <v>80164.861493999997</v>
       </c>
       <c r="AF2" s="1">
         <v>22.268017</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.813000</v>
+        <v>972.81299999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.237100</v>
+        <v>-80.237099999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>80175.280982</v>
+        <v>80175.280981999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>22.270911</v>
+        <v>22.270911000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.870000</v>
+        <v>980.87</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.729400</v>
+        <v>-87.729399999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>80185.492088</v>
+        <v>80185.492087999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>22.273748</v>
+        <v>22.273748000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.105000</v>
+        <v>990.10500000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.430000</v>
+        <v>-102.43</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>80196.482449</v>
+        <v>80196.482449000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>22.276801</v>
+        <v>22.276800999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.727000</v>
+        <v>-123.727</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>80207.658299</v>
+        <v>80207.658299000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22.279905</v>
+        <v>22.279904999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.170000</v>
+        <v>1011.17</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.303000</v>
+        <v>-142.303</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>80218.946748</v>
+        <v>80218.946748000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>22.283041</v>
+        <v>22.283041000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.490000</v>
+        <v>1056.49</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>80229.906845</v>
+        <v>80229.906845000005</v>
       </c>
       <c r="BJ2" s="1">
         <v>22.286085</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.970000</v>
+        <v>-360.97</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>80241.303455</v>
+        <v>80241.303455000001</v>
       </c>
       <c r="BO2" s="1">
         <v>22.289251</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-568.077000</v>
+        <v>-568.077</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>80252.884512</v>
+        <v>80252.884512000004</v>
       </c>
       <c r="BT2" s="1">
         <v>22.292468</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.030000</v>
+        <v>1413.03</v>
       </c>
       <c r="BV2" s="1">
-        <v>-788.903000</v>
+        <v>-788.90300000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>80263.563911</v>
+        <v>80263.563911000005</v>
       </c>
       <c r="BY2" s="1">
         <v>22.295434</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.550000</v>
+        <v>1573.55</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1019.250000</v>
+        <v>-1019.25</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>80275.132066</v>
+        <v>80275.132066000006</v>
       </c>
       <c r="CD2" s="1">
         <v>22.298648</v>
       </c>
       <c r="CE2" s="1">
-        <v>1974.460000</v>
+        <v>1974.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1557.750000</v>
+        <v>-1557.75</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>80103.366500</v>
+        <v>80103.366500000004</v>
       </c>
       <c r="B3" s="1">
-        <v>22.250935</v>
+        <v>22.250934999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>906.609000</v>
+        <v>906.60900000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.677000</v>
+        <v>-194.67699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>80113.797400</v>
+        <v>80113.797399999996</v>
       </c>
       <c r="G3" s="1">
         <v>22.253833</v>
       </c>
       <c r="H3" s="1">
-        <v>923.746000</v>
+        <v>923.74599999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.589000</v>
+        <v>-165.589</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>80123.969819</v>
+        <v>80123.969819000005</v>
       </c>
       <c r="L3" s="1">
-        <v>22.256658</v>
+        <v>22.256658000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>946.666000</v>
+        <v>946.66600000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.413000</v>
+        <v>-119.413</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>80134.222620</v>
+        <v>80134.22262</v>
       </c>
       <c r="Q3" s="1">
-        <v>22.259506</v>
+        <v>22.259505999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>953.429000</v>
+        <v>953.42899999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.178000</v>
+        <v>-104.178</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>80144.493774</v>
+        <v>80144.493774000002</v>
       </c>
       <c r="V3" s="1">
         <v>22.262359</v>
       </c>
       <c r="W3" s="1">
-        <v>960.127000</v>
+        <v>960.12699999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.441300</v>
+        <v>-90.441299999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>80154.611665</v>
+        <v>80154.611665000004</v>
       </c>
       <c r="AA3" s="1">
-        <v>22.265170</v>
+        <v>22.265170000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>967.666000</v>
+        <v>967.66600000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.766100</v>
+        <v>-80.766099999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>80165.202821</v>
+        <v>80165.202820999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>22.268112</v>
+        <v>22.268111999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.804000</v>
+        <v>972.80399999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.243600</v>
+        <v>-80.243600000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>80175.647990</v>
+        <v>80175.647989999998</v>
       </c>
       <c r="AK3" s="1">
         <v>22.271013</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.856000</v>
+        <v>980.85599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.738800</v>
+        <v>-87.738799999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>80185.889880</v>
+        <v>80185.889880000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>22.273858</v>
+        <v>22.273858000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.102000</v>
+        <v>990.10199999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.442000</v>
+        <v>-102.44199999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>80196.867373</v>
+        <v>80196.867373000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>22.276908</v>
+        <v>22.276907999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.510000</v>
+        <v>1001.51</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.735000</v>
+        <v>-123.735</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>80208.398826</v>
+        <v>80208.398826000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>22.280111</v>
+        <v>22.280111000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.150000</v>
+        <v>1011.15</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.311000</v>
+        <v>-142.31100000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>80219.342588</v>
@@ -903,876 +1319,876 @@
         <v>22.283151</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.500000</v>
+        <v>1056.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.418000</v>
+        <v>-226.41800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>80230.304141</v>
+        <v>80230.304141000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>22.286196</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.952000</v>
+        <v>-360.952</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>80241.735935</v>
+        <v>80241.735935000004</v>
       </c>
       <c r="BO3" s="1">
-        <v>22.289371</v>
+        <v>22.289370999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.139000</v>
+        <v>-568.13900000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>80253.646399</v>
+        <v>80253.646399000005</v>
       </c>
       <c r="BT3" s="1">
-        <v>22.292680</v>
+        <v>22.292680000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.060000</v>
+        <v>1413.06</v>
       </c>
       <c r="BV3" s="1">
-        <v>-789.061000</v>
+        <v>-789.06100000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>80264.351024</v>
+        <v>80264.351024000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>22.295653</v>
+        <v>22.295653000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.300000</v>
+        <v>1573.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1019.240000</v>
+        <v>-1019.24</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>80275.462897</v>
+        <v>80275.462897000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>22.298740</v>
+        <v>22.298739999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1974.350000</v>
+        <v>1974.35</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1558.120000</v>
+        <v>-1558.12</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>80103.705805</v>
+        <v>80103.705805000005</v>
       </c>
       <c r="B4" s="1">
-        <v>22.251029</v>
+        <v>22.251028999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>906.442000</v>
+        <v>906.44200000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.784000</v>
+        <v>-194.78399999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>80114.231399</v>
+        <v>80114.231398999997</v>
       </c>
       <c r="G4" s="1">
-        <v>22.253953</v>
+        <v>22.253952999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>923.346000</v>
+        <v>923.346</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.206000</v>
+        <v>-165.20599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>80124.395417</v>
+        <v>80124.395417000007</v>
       </c>
       <c r="L4" s="1">
         <v>22.256777</v>
       </c>
       <c r="M4" s="1">
-        <v>946.598000</v>
+        <v>946.59799999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.302000</v>
+        <v>-119.30200000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>80134.562379</v>
+        <v>80134.562378999995</v>
       </c>
       <c r="Q4" s="1">
         <v>22.259601</v>
       </c>
       <c r="R4" s="1">
-        <v>953.445000</v>
+        <v>953.44500000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.126000</v>
+        <v>-104.126</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>80144.792894</v>
+        <v>80144.792893999998</v>
       </c>
       <c r="V4" s="1">
         <v>22.262442</v>
       </c>
       <c r="W4" s="1">
-        <v>960.147000</v>
+        <v>960.14700000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.491500</v>
+        <v>-90.491500000000002</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>80154.958368</v>
+        <v>80154.958368000007</v>
       </c>
       <c r="AA4" s="1">
         <v>22.265266</v>
       </c>
       <c r="AB4" s="1">
-        <v>967.630000</v>
+        <v>967.63</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.719900</v>
+        <v>-80.719899999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>80165.544979</v>
+        <v>80165.544978999998</v>
       </c>
       <c r="AF4" s="1">
         <v>22.268207</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.771000</v>
+        <v>972.77099999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.221900</v>
+        <v>-80.221900000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>80175.993205</v>
+        <v>80175.993205000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>22.271109</v>
+        <v>22.271108999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.862000</v>
+        <v>980.86199999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.750400</v>
+        <v>-87.750399999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>80186.621974</v>
+        <v>80186.621973999994</v>
       </c>
       <c r="AP4" s="1">
-        <v>22.274062</v>
+        <v>22.274062000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.105000</v>
+        <v>990.10500000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>80197.596456</v>
+        <v>80197.596455999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>22.277110</v>
+        <v>22.27711</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.751000</v>
+        <v>-123.751</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>80208.753484</v>
+        <v>80208.753484000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>22.280209</v>
+        <v>22.280208999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.140000</v>
+        <v>1011.14</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.316000</v>
+        <v>-142.316</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>80219.704667</v>
+        <v>80219.704666999998</v>
       </c>
       <c r="BE4" s="1">
         <v>22.283251</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.413000</v>
+        <v>-226.41300000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>80230.679117</v>
+        <v>80230.679117000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>22.286300</v>
+        <v>22.286300000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.950000</v>
+        <v>1135.95</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.975000</v>
+        <v>-360.97500000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>80242.470541</v>
+        <v>80242.470541000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>22.289575</v>
+        <v>22.289574999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1267.010000</v>
+        <v>1267.01</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.160000</v>
+        <v>-568.16</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>80253.758494</v>
+        <v>80253.758493999994</v>
       </c>
       <c r="BT4" s="1">
-        <v>22.292711</v>
+        <v>22.292711000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.070000</v>
+        <v>1413.07</v>
       </c>
       <c r="BV4" s="1">
-        <v>-789.197000</v>
+        <v>-789.197</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>80264.467088</v>
+        <v>80264.467088000005</v>
       </c>
       <c r="BY4" s="1">
-        <v>22.295685</v>
+        <v>22.295684999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.450000</v>
+        <v>1573.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1019.340000</v>
+        <v>-1019.34</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>80275.982748</v>
+        <v>80275.982747999995</v>
       </c>
       <c r="CD4" s="1">
-        <v>22.298884</v>
+        <v>22.298884000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1976.120000</v>
+        <v>1976.12</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1558.390000</v>
+        <v>-1558.39</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>80104.127364</v>
       </c>
       <c r="B5" s="1">
-        <v>22.251146</v>
+        <v>22.251145999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>906.363000</v>
+        <v>906.36300000000006</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.659000</v>
+        <v>-194.65899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>80114.513590</v>
+        <v>80114.513590000002</v>
       </c>
       <c r="G5" s="1">
-        <v>22.254032</v>
+        <v>22.254031999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>923.572000</v>
+        <v>923.572</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.813000</v>
+        <v>-165.81299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>80124.690505</v>
+        <v>80124.690505000006</v>
       </c>
       <c r="L5" s="1">
-        <v>22.256858</v>
+        <v>22.256858000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>946.535000</v>
+        <v>946.53499999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.344000</v>
+        <v>-119.34399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>80134.913051</v>
+        <v>80134.913050999996</v>
       </c>
       <c r="Q5" s="1">
         <v>22.259698</v>
       </c>
       <c r="R5" s="1">
-        <v>953.474000</v>
+        <v>953.47400000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.169000</v>
+        <v>-104.169</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>80145.138607</v>
+        <v>80145.138607000001</v>
       </c>
       <c r="V5" s="1">
         <v>22.262539</v>
       </c>
       <c r="W5" s="1">
-        <v>960.192000</v>
+        <v>960.19200000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.365000</v>
+        <v>-90.364999999999995</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>80155.311522</v>
+        <v>80155.311522000004</v>
       </c>
       <c r="AA5" s="1">
-        <v>22.265364</v>
+        <v>22.265364000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>967.665000</v>
+        <v>967.66499999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.800600</v>
+        <v>-80.800600000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>80166.231474</v>
       </c>
       <c r="AF5" s="1">
-        <v>22.268398</v>
+        <v>22.268398000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.800000</v>
+        <v>972.8</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.271100</v>
+        <v>-80.271100000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>80176.694548</v>
+        <v>80176.694547999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>22.271304</v>
+        <v>22.271304000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.869000</v>
+        <v>980.86900000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.747100</v>
+        <v>-87.747100000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>80186.996950</v>
+        <v>80186.996950000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>22.274166</v>
+        <v>22.274166000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.098000</v>
+        <v>990.09799999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.455000</v>
+        <v>-102.455</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>80197.986313</v>
+        <v>80197.986313000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>22.277218</v>
+        <v>22.277218000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.510000</v>
+        <v>1001.51</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.745000</v>
+        <v>-123.745</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>80209.114553</v>
+        <v>80209.114553000007</v>
       </c>
       <c r="AZ5" s="1">
-        <v>22.280310</v>
+        <v>22.28031</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.150000</v>
+        <v>1011.15</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.300000</v>
+        <v>-142.30000000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>80220.372288</v>
+        <v>80220.372287999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>22.283437</v>
+        <v>22.283436999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.409000</v>
+        <v>-226.40899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>80231.369051</v>
+        <v>80231.369051000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>22.286491</v>
+        <v>22.286491000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.990000</v>
+        <v>1135.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.954000</v>
+        <v>-360.95400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>80242.971468</v>
+        <v>80242.971468000003</v>
       </c>
       <c r="BO5" s="1">
         <v>22.289714</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.174000</v>
+        <v>-568.17399999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>80254.190509</v>
+        <v>80254.190508999993</v>
       </c>
       <c r="BT5" s="1">
         <v>22.292831</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.110000</v>
+        <v>1413.11</v>
       </c>
       <c r="BV5" s="1">
-        <v>-789.251000</v>
+        <v>-789.25099999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>80264.909056</v>
+        <v>80264.909056000004</v>
       </c>
       <c r="BY5" s="1">
-        <v>22.295808</v>
+        <v>22.295808000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.470000</v>
+        <v>1573.47</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1019.390000</v>
+        <v>-1019.39</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>80276.500064</v>
+        <v>80276.500064000007</v>
       </c>
       <c r="CD5" s="1">
         <v>22.299028</v>
       </c>
       <c r="CE5" s="1">
-        <v>1975.690000</v>
+        <v>1975.69</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1558.680000</v>
+        <v>-1558.68</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>80104.413557</v>
+        <v>80104.413557000007</v>
       </c>
       <c r="B6" s="1">
-        <v>22.251226</v>
+        <v>22.251225999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>906.598000</v>
+        <v>906.59799999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.675000</v>
+        <v>-194.67500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>80114.857815</v>
+        <v>80114.857814999996</v>
       </c>
       <c r="G6" s="1">
         <v>22.254127</v>
       </c>
       <c r="H6" s="1">
-        <v>923.894000</v>
+        <v>923.89400000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.051000</v>
+        <v>-166.05099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>80125.037245</v>
       </c>
       <c r="L6" s="1">
-        <v>22.256955</v>
+        <v>22.256955000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>946.552000</v>
+        <v>946.55200000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.303000</v>
+        <v>-119.303</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>80135.262235</v>
+        <v>80135.262235000002</v>
       </c>
       <c r="Q6" s="1">
         <v>22.259795</v>
       </c>
       <c r="R6" s="1">
-        <v>953.467000</v>
+        <v>953.46699999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.201000</v>
+        <v>-104.20099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>80145.480813</v>
+        <v>80145.480813000002</v>
       </c>
       <c r="V6" s="1">
-        <v>22.262634</v>
+        <v>22.262633999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>960.061000</v>
+        <v>960.06100000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.453300</v>
+        <v>-90.453299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>80156.006911</v>
+        <v>80156.006911000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>22.265557</v>
+        <v>22.265557000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>967.646000</v>
+        <v>967.64599999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.744000</v>
+        <v>-80.744</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>80166.575208</v>
+        <v>80166.575207999995</v>
       </c>
       <c r="AF6" s="1">
-        <v>22.268493</v>
+        <v>22.268492999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.765000</v>
+        <v>972.76499999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.236200</v>
+        <v>-80.236199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>80177.040260</v>
+        <v>80177.040259999994</v>
       </c>
       <c r="AK6" s="1">
-        <v>22.271400</v>
+        <v>22.2714</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.833000</v>
+        <v>980.83299999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.738100</v>
+        <v>-87.738100000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>80187.356550</v>
+        <v>80187.356549999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>22.274266</v>
+        <v>22.274266000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.099000</v>
+        <v>990.09900000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>80198.351367</v>
+        <v>80198.351366999996</v>
       </c>
       <c r="AU6" s="1">
-        <v>22.277320</v>
+        <v>22.27732</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.724000</v>
+        <v>-123.724</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>80209.784680</v>
+        <v>80209.784679999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>22.280496</v>
+        <v>22.280495999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.150000</v>
+        <v>1011.15</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.308000</v>
+        <v>-142.30799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>80220.820635</v>
+        <v>80220.820634999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>22.283561</v>
+        <v>22.283560999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.470000</v>
+        <v>1056.47</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.416000</v>
+        <v>-226.416</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>80231.805532</v>
+        <v>80231.805531999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>22.286613</v>
+        <v>22.286612999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.976000</v>
+        <v>-360.976</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>80243.393564</v>
+        <v>80243.393563999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>22.289832</v>
+        <v>22.289832000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.140000</v>
+        <v>-568.14</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>80254.601661</v>
+        <v>80254.601660999993</v>
       </c>
       <c r="BT6" s="1">
         <v>22.292945</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.180000</v>
+        <v>1413.18</v>
       </c>
       <c r="BV6" s="1">
-        <v>-789.331000</v>
+        <v>-789.33100000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>80265.329631</v>
+        <v>80265.329631000001</v>
       </c>
       <c r="BY6" s="1">
         <v>22.295925</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.520000</v>
+        <v>1573.52</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1019.440000</v>
+        <v>-1019.44</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>80277.050591</v>
+        <v>80277.050591000007</v>
       </c>
       <c r="CD6" s="1">
-        <v>22.299181</v>
+        <v>22.299181000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1974.630000</v>
+        <v>1974.63</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1558.350000</v>
+        <v>-1558.35</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>80104.756291</v>
+        <v>80104.756290999998</v>
       </c>
       <c r="B7" s="1">
-        <v>22.251321</v>
+        <v>22.251321000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>906.477000</v>
+        <v>906.47699999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.569000</v>
+        <v>-194.56899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>80115.204029</v>
@@ -1781,707 +2197,707 @@
         <v>22.254223</v>
       </c>
       <c r="H7" s="1">
-        <v>923.502000</v>
+        <v>923.50199999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.695000</v>
+        <v>-165.69499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>80125.382452</v>
+        <v>80125.382452000005</v>
       </c>
       <c r="L7" s="1">
-        <v>22.257051</v>
+        <v>22.257051000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>946.646000</v>
+        <v>946.64599999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.450000</v>
+        <v>-119.45</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>80135.956138</v>
+        <v>80135.956137999994</v>
       </c>
       <c r="Q7" s="1">
         <v>22.259988</v>
       </c>
       <c r="R7" s="1">
-        <v>953.446000</v>
+        <v>953.44600000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.178000</v>
+        <v>-104.178</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>80146.169261</v>
+        <v>80146.169261000003</v>
       </c>
       <c r="V7" s="1">
-        <v>22.262825</v>
+        <v>22.262824999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>960.252000</v>
+        <v>960.25199999999995</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.441200</v>
+        <v>-90.441199999999995</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>80156.353615</v>
       </c>
       <c r="AA7" s="1">
-        <v>22.265654</v>
+        <v>22.265654000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.651000</v>
+        <v>967.65099999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.806800</v>
+        <v>-80.806799999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>80166.917905</v>
+        <v>80166.917904999995</v>
       </c>
       <c r="AF7" s="1">
-        <v>22.268588</v>
+        <v>22.268588000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.784000</v>
+        <v>972.78399999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.268600</v>
+        <v>-80.268600000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>80177.388948</v>
+        <v>80177.388948000007</v>
       </c>
       <c r="AK7" s="1">
         <v>22.271497</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.848000</v>
+        <v>980.84799999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.733700</v>
+        <v>-87.733699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>80188.037061</v>
+        <v>80188.037060999995</v>
       </c>
       <c r="AP7" s="1">
         <v>22.274455</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.103000</v>
+        <v>990.10299999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>80199.036375</v>
+        <v>80199.036374999996</v>
       </c>
       <c r="AU7" s="1">
-        <v>22.277510</v>
+        <v>22.277509999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.729000</v>
+        <v>-123.729</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>80210.192856</v>
+        <v>80210.192855999994</v>
       </c>
       <c r="AZ7" s="1">
-        <v>22.280609</v>
+        <v>22.280608999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.299000</v>
+        <v>-142.29900000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>80221.181124</v>
+        <v>80221.181123999995</v>
       </c>
       <c r="BE7" s="1">
-        <v>22.283661</v>
+        <v>22.283660999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.500000</v>
+        <v>1056.5</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.432000</v>
+        <v>-226.43199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>80232.179904</v>
+        <v>80232.179904000004</v>
       </c>
       <c r="BJ7" s="1">
-        <v>22.286717</v>
+        <v>22.286716999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.952000</v>
+        <v>-360.952</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>80243.788379</v>
+        <v>80243.788379000005</v>
       </c>
       <c r="BO7" s="1">
-        <v>22.289941</v>
+        <v>22.289940999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.223000</v>
+        <v>-568.22299999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>80255.035197</v>
+        <v>80255.035197000005</v>
       </c>
       <c r="BT7" s="1">
-        <v>22.293065</v>
+        <v>22.293064999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.290000</v>
+        <v>1413.29</v>
       </c>
       <c r="BV7" s="1">
-        <v>-789.386000</v>
+        <v>-789.38599999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>80265.765118</v>
+        <v>80265.765117999996</v>
       </c>
       <c r="BY7" s="1">
         <v>22.296046</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.520000</v>
+        <v>1573.52</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1019.260000</v>
+        <v>-1019.26</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>80277.581807</v>
+        <v>80277.581806999995</v>
       </c>
       <c r="CD7" s="1">
-        <v>22.299328</v>
+        <v>22.299327999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1976.370000</v>
+        <v>1976.37</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1558.230000</v>
+        <v>-1558.23</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>80105.097538</v>
+        <v>80105.097538000002</v>
       </c>
       <c r="B8" s="1">
-        <v>22.251416</v>
+        <v>22.251415999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>906.610000</v>
+        <v>906.61</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.552000</v>
+        <v>-194.55199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>80115.897962</v>
+        <v>80115.897962000003</v>
       </c>
       <c r="G8" s="1">
-        <v>22.254416</v>
+        <v>22.254415999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>923.921000</v>
+        <v>923.92100000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.212000</v>
+        <v>-166.21199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>80126.072856</v>
+        <v>80126.072855999999</v>
       </c>
       <c r="L8" s="1">
-        <v>22.257242</v>
+        <v>22.257242000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>946.560000</v>
+        <v>946.56</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.381000</v>
+        <v>-119.381</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>80136.305321</v>
+        <v>80136.305321000007</v>
       </c>
       <c r="Q8" s="1">
         <v>22.260085</v>
       </c>
       <c r="R8" s="1">
-        <v>953.428000</v>
+        <v>953.428</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.165000</v>
+        <v>-104.16500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>80146.519475</v>
+        <v>80146.519474999994</v>
       </c>
       <c r="V8" s="1">
         <v>22.262922</v>
       </c>
       <c r="W8" s="1">
-        <v>960.223000</v>
+        <v>960.22299999999996</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.474200</v>
+        <v>-90.474199999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>80156.705812</v>
       </c>
       <c r="AA8" s="1">
-        <v>22.265752</v>
+        <v>22.265751999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>967.599000</v>
+        <v>967.59900000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.832400</v>
+        <v>-80.832400000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>80167.570672</v>
+        <v>80167.570672000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>22.268770</v>
+        <v>22.26877</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.830000</v>
+        <v>972.83</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.183900</v>
+        <v>-80.183899999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>80178.048627</v>
+        <v>80178.048626999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>22.271680</v>
+        <v>22.27168</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.863000</v>
+        <v>980.86300000000006</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.745000</v>
+        <v>-87.745000000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>80188.438852</v>
+        <v>80188.438852000007</v>
       </c>
       <c r="AP8" s="1">
         <v>22.274566</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.119000</v>
+        <v>990.11900000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.438000</v>
+        <v>-102.438</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>80199.476326</v>
+        <v>80199.476326000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>22.277632</v>
+        <v>22.277632000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.500000</v>
+        <v>1001.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.732000</v>
+        <v>-123.732</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>80210.577753</v>
+        <v>80210.577753000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>22.280716</v>
+        <v>22.280716000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.279000</v>
+        <v>-142.279</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>80221.545289</v>
+        <v>80221.545289000002</v>
       </c>
       <c r="BE8" s="1">
         <v>22.283763</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.404000</v>
+        <v>-226.404</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>80232.555522</v>
+        <v>80232.555521999995</v>
       </c>
       <c r="BJ8" s="1">
         <v>22.286821</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.950000</v>
+        <v>1135.95</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.981000</v>
+        <v>-360.98099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>80244.210970</v>
+        <v>80244.21097</v>
       </c>
       <c r="BO8" s="1">
-        <v>22.290059</v>
+        <v>22.290058999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.194000</v>
+        <v>-568.19399999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>80255.460248</v>
+        <v>80255.460248000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>22.293183</v>
+        <v>22.293182999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.390000</v>
+        <v>1413.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-789.434000</v>
+        <v>-789.43399999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>80266.178286</v>
+        <v>80266.178285999995</v>
       </c>
       <c r="BY8" s="1">
-        <v>22.296161</v>
+        <v>22.296161000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.350000</v>
+        <v>1573.35</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1019.220000</v>
+        <v>-1019.22</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>80278.100126</v>
+        <v>80278.100126000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>22.299472</v>
+        <v>22.299472000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1975.710000</v>
+        <v>1975.71</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1556.480000</v>
+        <v>-1556.48</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>80105.782054</v>
+        <v>80105.782053999996</v>
       </c>
       <c r="B9" s="1">
-        <v>22.251606</v>
+        <v>22.251605999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>906.563000</v>
+        <v>906.56299999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.666000</v>
+        <v>-194.666</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>80116.241156</v>
+        <v>80116.241156000004</v>
       </c>
       <c r="G9" s="1">
-        <v>22.254511</v>
+        <v>22.254511000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>923.473000</v>
+        <v>923.47299999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.186000</v>
+        <v>-165.18600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>80126.419558</v>
+        <v>80126.419557999994</v>
       </c>
       <c r="L9" s="1">
-        <v>22.257339</v>
+        <v>22.257339000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>946.533000</v>
+        <v>946.53300000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.432000</v>
+        <v>-119.432</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>80136.655994</v>
+        <v>80136.655994000001</v>
       </c>
       <c r="Q9" s="1">
         <v>22.260182</v>
       </c>
       <c r="R9" s="1">
-        <v>953.420000</v>
+        <v>953.42</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.170000</v>
+        <v>-104.17</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>80146.887650</v>
+        <v>80146.887650000004</v>
       </c>
       <c r="V9" s="1">
-        <v>22.263024</v>
+        <v>22.263024000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>960.108000</v>
+        <v>960.10799999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.439200</v>
+        <v>-90.4392</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>80157.370942</v>
+        <v>80157.370941999994</v>
       </c>
       <c r="AA9" s="1">
         <v>22.265936</v>
       </c>
       <c r="AB9" s="1">
-        <v>967.717000</v>
+        <v>967.71699999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.846600</v>
+        <v>-80.846599999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>80167.951573</v>
+        <v>80167.951572999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>22.268875</v>
+        <v>22.268875000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.767000</v>
+        <v>972.76700000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.209100</v>
+        <v>-80.209100000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>80178.438482</v>
+        <v>80178.438481999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>22.271788</v>
+        <v>22.271788000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.843000</v>
+        <v>980.84299999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.718800</v>
+        <v>-87.718800000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>80188.821275</v>
+        <v>80188.821274999995</v>
       </c>
       <c r="AP9" s="1">
         <v>22.274673</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.117000</v>
+        <v>990.11699999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.417000</v>
+        <v>-102.417</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>80199.846806</v>
+        <v>80199.846806000001</v>
       </c>
       <c r="AU9" s="1">
         <v>22.277735</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.510000</v>
+        <v>1001.51</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.720000</v>
+        <v>-123.72</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>80210.937848</v>
+        <v>80210.937848000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>22.280816</v>
+        <v>22.280816000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.296000</v>
+        <v>-142.29599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>80221.966393</v>
+        <v>80221.966392999995</v>
       </c>
       <c r="BE9" s="1">
-        <v>22.283880</v>
+        <v>22.28388</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.460000</v>
+        <v>1056.46</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>80232.982043</v>
+        <v>80232.982042999996</v>
       </c>
       <c r="BJ9" s="1">
         <v>22.286939</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.966000</v>
+        <v>-360.96600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>80244.606811</v>
+        <v>80244.606811000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>22.290169</v>
+        <v>22.290168999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.162000</v>
+        <v>-568.16200000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>80255.872936</v>
@@ -2490,2962 +2906,2962 @@
         <v>22.293298</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV9" s="1">
-        <v>-789.447000</v>
+        <v>-789.447</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>80266.594430</v>
+        <v>80266.594429999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>22.296276</v>
+        <v>22.296275999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.400000</v>
+        <v>1573.4</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1019.380000</v>
+        <v>-1019.38</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>80278.617951</v>
+        <v>80278.617950999993</v>
       </c>
       <c r="CD9" s="1">
         <v>22.299616</v>
       </c>
       <c r="CE9" s="1">
-        <v>1974.420000</v>
+        <v>1974.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1557.500000</v>
+        <v>-1557.5</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>80106.125746</v>
+        <v>80106.125746000005</v>
       </c>
       <c r="B10" s="1">
-        <v>22.251702</v>
+        <v>22.251702000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>906.518000</v>
+        <v>906.51800000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.589000</v>
+        <v>-194.589</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>80116.586371</v>
+        <v>80116.586370999998</v>
       </c>
       <c r="G10" s="1">
         <v>22.254607</v>
       </c>
       <c r="H10" s="1">
-        <v>923.343000</v>
+        <v>923.34299999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.738000</v>
+        <v>-165.738</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>80126.765766</v>
+        <v>80126.765765999997</v>
       </c>
       <c r="L10" s="1">
-        <v>22.257435</v>
+        <v>22.257435000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>946.597000</v>
+        <v>946.59699999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.290000</v>
+        <v>-119.29</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>80137.321128</v>
+        <v>80137.321127999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>22.260367</v>
+        <v>22.260366999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>953.482000</v>
+        <v>953.48199999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.190000</v>
+        <v>-104.19</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>80147.373585</v>
+        <v>80147.373584999994</v>
       </c>
       <c r="V10" s="1">
-        <v>22.263159</v>
+        <v>22.263159000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>960.101000</v>
+        <v>960.101</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.415300</v>
+        <v>-90.415300000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>80157.750350</v>
+        <v>80157.750350000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>22.266042</v>
+        <v>22.266041999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.725000</v>
+        <v>967.72500000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.808200</v>
+        <v>-80.808199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>80168.292815</v>
+        <v>80168.292814999993</v>
       </c>
       <c r="AF10" s="1">
-        <v>22.268970</v>
+        <v>22.268969999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.797000</v>
+        <v>972.79700000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.170500</v>
+        <v>-80.170500000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>80178.787666</v>
+        <v>80178.787666000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>22.271885</v>
+        <v>22.271885000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.857000</v>
+        <v>980.85699999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.734300</v>
+        <v>-87.734300000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>80189.184032</v>
+        <v>80189.184032000005</v>
       </c>
       <c r="AP10" s="1">
         <v>22.274773</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.119000</v>
+        <v>990.11900000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.428000</v>
+        <v>-102.428</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>80200.279813</v>
+        <v>80200.279813000001</v>
       </c>
       <c r="AU10" s="1">
         <v>22.277856</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>80211.361462</v>
+        <v>80211.361462000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>22.280934</v>
+        <v>22.280933999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.170000</v>
+        <v>1011.17</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.314000</v>
+        <v>-142.31399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>80222.267464</v>
+        <v>80222.267464000004</v>
       </c>
       <c r="BE10" s="1">
         <v>22.283963</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.470000</v>
+        <v>1056.47</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.414000</v>
+        <v>-226.41399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>80233.330729</v>
+        <v>80233.330728999994</v>
       </c>
       <c r="BJ10" s="1">
-        <v>22.287036</v>
+        <v>22.287036000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1136.000000</v>
+        <v>1136</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.940000</v>
+        <v>-360.94</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>80245.027881</v>
+        <v>80245.027881000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>22.290286</v>
+        <v>22.290285999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.165000</v>
+        <v>-568.16499999999996</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>80256.302476</v>
+        <v>80256.302475999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>22.293417</v>
+        <v>22.293417000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-789.422000</v>
+        <v>-789.42200000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>80267.044337</v>
+        <v>80267.044336999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>22.296401</v>
+        <v>22.296400999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.510000</v>
+        <v>1573.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1019.310000</v>
+        <v>-1019.31</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>80279.138749</v>
+        <v>80279.138749000005</v>
       </c>
       <c r="CD10" s="1">
         <v>22.299761</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.610000</v>
+        <v>1974.61</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1557.230000</v>
+        <v>-1557.23</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>80106.466498</v>
+        <v>80106.466497999994</v>
       </c>
       <c r="B11" s="1">
-        <v>22.251796</v>
+        <v>22.251795999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>906.605000</v>
+        <v>906.60500000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.714000</v>
+        <v>-194.714</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>80117.241092</v>
+        <v>80117.241091999997</v>
       </c>
       <c r="G11" s="1">
-        <v>22.254789</v>
+        <v>22.254788999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>923.117000</v>
+        <v>923.11699999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.145000</v>
+        <v>-166.14500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>80127.420517</v>
+        <v>80127.420517000006</v>
       </c>
       <c r="L11" s="1">
         <v>22.257617</v>
       </c>
       <c r="M11" s="1">
-        <v>946.531000</v>
+        <v>946.53099999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.390000</v>
+        <v>-119.39</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>80137.701064</v>
+        <v>80137.701063999993</v>
       </c>
       <c r="Q11" s="1">
-        <v>22.260473</v>
+        <v>22.260473000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>953.490000</v>
+        <v>953.49</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.206000</v>
+        <v>-104.206</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>80147.566025</v>
+        <v>80147.566024999993</v>
       </c>
       <c r="V11" s="1">
         <v>22.263213</v>
       </c>
       <c r="W11" s="1">
-        <v>960.161000</v>
+        <v>960.16099999999994</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.426400</v>
+        <v>-90.426400000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>80158.098541</v>
+        <v>80158.098540999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>22.266138</v>
+        <v>22.266138000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.613000</v>
+        <v>967.61300000000006</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.747800</v>
+        <v>-80.747799999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>80168.639022</v>
+        <v>80168.639022000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>22.269066</v>
+        <v>22.269065999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.241100</v>
+        <v>-80.241100000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>80179.130897</v>
+        <v>80179.130896999995</v>
       </c>
       <c r="AK11" s="1">
         <v>22.271981</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.740900</v>
+        <v>-87.740899999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>80189.610371</v>
+        <v>80189.610371000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>22.274892</v>
+        <v>22.274892000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.108000</v>
+        <v>990.10799999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.431000</v>
+        <v>-102.431</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>80200.573940</v>
+        <v>80200.573940000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>22.277937</v>
+        <v>22.277937000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>80211.656550</v>
+        <v>80211.65655</v>
       </c>
       <c r="AZ11" s="1">
-        <v>22.281016</v>
+        <v>22.281016000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.293000</v>
+        <v>-142.29300000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>80222.629544</v>
+        <v>80222.629543999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>22.284064</v>
+        <v>22.284064000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.470000</v>
+        <v>1056.47</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.389000</v>
+        <v>-226.38900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>80233.707689</v>
+        <v>80233.707689000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>22.287141</v>
+        <v>22.287140999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.978000</v>
+        <v>-360.97800000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>80245.427161</v>
       </c>
       <c r="BO11" s="1">
-        <v>22.290396</v>
+        <v>22.290396000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.190000</v>
+        <v>-568.19000000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>80256.731019</v>
+        <v>80256.731018999999</v>
       </c>
       <c r="BT11" s="1">
         <v>22.293536</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.610000</v>
+        <v>1413.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-789.353000</v>
+        <v>-789.35299999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>80267.914319</v>
+        <v>80267.914319000003</v>
       </c>
       <c r="BY11" s="1">
         <v>22.296643</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.550000</v>
+        <v>1573.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1019.300000</v>
+        <v>-1019.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>80279.687822</v>
+        <v>80279.687822000007</v>
       </c>
       <c r="CD11" s="1">
         <v>22.299913</v>
       </c>
       <c r="CE11" s="1">
-        <v>1974.910000</v>
+        <v>1974.91</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1556.670000</v>
+        <v>-1556.67</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>80107.125712</v>
+        <v>80107.125711999994</v>
       </c>
       <c r="B12" s="1">
-        <v>22.251979</v>
+        <v>22.251978999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>906.470000</v>
+        <v>906.47</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.686000</v>
+        <v>-194.68600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>80117.623024</v>
       </c>
       <c r="G12" s="1">
-        <v>22.254895</v>
+        <v>22.254895000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>924.092000</v>
+        <v>924.09199999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.762000</v>
+        <v>-165.762</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>80127.801445</v>
+        <v>80127.801445000005</v>
       </c>
       <c r="L12" s="1">
-        <v>22.257723</v>
+        <v>22.257722999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>946.444000</v>
+        <v>946.44399999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.426000</v>
+        <v>-119.426</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>80138.049759</v>
+        <v>80138.049759000001</v>
       </c>
       <c r="Q12" s="1">
         <v>22.260569</v>
       </c>
       <c r="R12" s="1">
-        <v>953.444000</v>
+        <v>953.44399999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.168000</v>
+        <v>-104.16800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>80147.909227</v>
+        <v>80147.909226999996</v>
       </c>
       <c r="V12" s="1">
-        <v>22.263308</v>
+        <v>22.263307999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>960.107000</v>
+        <v>960.10699999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.432200</v>
+        <v>-90.432199999999995</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>80158.451196</v>
+        <v>80158.451195999995</v>
       </c>
       <c r="AA12" s="1">
-        <v>22.266236</v>
+        <v>22.266235999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>967.701000</v>
+        <v>967.70100000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.784200</v>
+        <v>-80.784199999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>80169.070542</v>
+        <v>80169.070542000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>22.269186</v>
+        <v>22.269186000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.785000</v>
+        <v>972.78499999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.219200</v>
+        <v>-80.219200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>80179.560928</v>
+        <v>80179.560928000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>22.272100</v>
+        <v>22.272099999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.848000</v>
+        <v>980.84799999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.723400</v>
+        <v>-87.723399999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>80189.904498</v>
+        <v>80189.904498000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>22.274973</v>
+        <v>22.274972999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.100000</v>
+        <v>990.1</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.444000</v>
+        <v>-102.444</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>80200.938532</v>
       </c>
       <c r="AU12" s="1">
-        <v>22.278038</v>
+        <v>22.278037999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.746000</v>
+        <v>-123.746</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>80212.016150</v>
+        <v>80212.016149999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>22.281116</v>
+        <v>22.281116000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.293000</v>
+        <v>-142.29300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>80222.989640</v>
+        <v>80222.98964</v>
       </c>
       <c r="BE12" s="1">
-        <v>22.284164</v>
+        <v>22.284164000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.405000</v>
+        <v>-226.405</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>80234.457144</v>
       </c>
       <c r="BJ12" s="1">
-        <v>22.287349</v>
+        <v>22.287348999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.980000</v>
+        <v>1135.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.984000</v>
+        <v>-360.98399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>80245.851241</v>
+        <v>80245.851240999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>22.290514</v>
+        <v>22.290514000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.180000</v>
+        <v>-568.17999999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>80257.144459</v>
+        <v>80257.144459000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>22.293651</v>
+        <v>22.293651000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.650000</v>
+        <v>1413.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-789.336000</v>
+        <v>-789.33600000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>80268.326955</v>
+        <v>80268.326954999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>22.296757</v>
+        <v>22.296756999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.450000</v>
+        <v>1573.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1019.310000</v>
+        <v>-1019.31</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>80280.216556</v>
+        <v>80280.216555999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>22.300060</v>
+        <v>22.300059999999998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1974.260000</v>
+        <v>1974.26</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1558.070000</v>
+        <v>-1558.07</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>80107.491732</v>
+        <v>80107.491731999995</v>
       </c>
       <c r="B13" s="1">
         <v>22.252081</v>
       </c>
       <c r="C13" s="1">
-        <v>906.522000</v>
+        <v>906.52200000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.659000</v>
+        <v>-194.65899999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>80117.966241</v>
+        <v>80117.966241000002</v>
       </c>
       <c r="G13" s="1">
         <v>22.254991</v>
       </c>
       <c r="H13" s="1">
-        <v>923.922000</v>
+        <v>923.92200000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.768000</v>
+        <v>-165.768</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>80128.148116</v>
+        <v>80128.148115999997</v>
       </c>
       <c r="L13" s="1">
-        <v>22.257819</v>
+        <v>22.257819000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>946.544000</v>
+        <v>946.54399999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.386000</v>
+        <v>-119.386</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>80138.396488</v>
+        <v>80138.396487999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>22.260666</v>
+        <v>22.260666000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>953.460000</v>
+        <v>953.46</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.188000</v>
+        <v>-104.188</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>80148.328842</v>
+        <v>80148.328842000003</v>
       </c>
       <c r="V13" s="1">
-        <v>22.263425</v>
+        <v>22.263425000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>960.101000</v>
+        <v>960.101</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.397300</v>
+        <v>-90.397300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>80158.887179</v>
+        <v>80158.887178999998</v>
       </c>
       <c r="AA13" s="1">
         <v>22.266358</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.695000</v>
+        <v>967.69500000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.820600</v>
+        <v>-80.820599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>80169.350781</v>
+        <v>80169.350781000001</v>
       </c>
       <c r="AF13" s="1">
         <v>22.269264</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.777000</v>
+        <v>972.77700000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.217400</v>
+        <v>-80.217399999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>80179.831745</v>
+        <v>80179.831745000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>22.272175</v>
+        <v>22.272175000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.858000</v>
+        <v>980.85799999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.701100</v>
+        <v>-87.701099999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>80190.265090</v>
+        <v>80190.265090000001</v>
       </c>
       <c r="AP13" s="1">
         <v>22.275074</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.115000</v>
+        <v>990.11500000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.414000</v>
+        <v>-102.414</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>80201.302596</v>
+        <v>80201.302595999994</v>
       </c>
       <c r="AU13" s="1">
-        <v>22.278140</v>
+        <v>22.27814</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.741000</v>
+        <v>-123.741</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>80212.373765</v>
+        <v>80212.373764999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>22.281215</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.170000</v>
+        <v>1011.17</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.301000</v>
+        <v>-142.30099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>80223.710359</v>
+        <v>80223.710359000004</v>
       </c>
       <c r="BE13" s="1">
         <v>22.284364</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.470000</v>
+        <v>1056.47</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.421000</v>
+        <v>-226.42099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>80234.834135</v>
+        <v>80234.834134999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>22.287454</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.955000</v>
+        <v>-360.95499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>80246.243111</v>
+        <v>80246.243111000003</v>
       </c>
       <c r="BO13" s="1">
         <v>22.290623</v>
       </c>
       <c r="BP13" s="1">
-        <v>1267.000000</v>
+        <v>1267</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.174000</v>
+        <v>-568.17399999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>80257.575686</v>
+        <v>80257.575685999996</v>
       </c>
       <c r="BT13" s="1">
         <v>22.293771</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.650000</v>
+        <v>1413.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-789.241000</v>
+        <v>-789.24099999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>80269.076687</v>
+        <v>80269.076686999993</v>
       </c>
       <c r="BY13" s="1">
-        <v>22.296966</v>
+        <v>22.296966000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.450000</v>
+        <v>1573.45</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1019.420000</v>
+        <v>-1019.42</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>80281.037434</v>
+        <v>80281.037433999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>22.300288</v>
+        <v>22.300287999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1975.730000</v>
+        <v>1975.73</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1558.640000</v>
+        <v>-1558.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>80107.835455</v>
+        <v>80107.835454999993</v>
       </c>
       <c r="B14" s="1">
         <v>22.252177</v>
       </c>
       <c r="C14" s="1">
-        <v>906.518000</v>
+        <v>906.51800000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.563000</v>
+        <v>-194.56299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>80118.310465</v>
+        <v>80118.310465000002</v>
       </c>
       <c r="G14" s="1">
-        <v>22.255086</v>
+        <v>22.255085999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>923.530000</v>
+        <v>923.53</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.377000</v>
+        <v>-165.37700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>80128.495849</v>
+        <v>80128.495848999999</v>
       </c>
       <c r="L14" s="1">
-        <v>22.257916</v>
+        <v>22.257916000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>946.609000</v>
+        <v>946.60900000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.396000</v>
+        <v>-119.396</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>80138.826023</v>
+        <v>80138.826023000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>22.260785</v>
+        <v>22.260784999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>953.421000</v>
+        <v>953.42100000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.147000</v>
+        <v>-104.14700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>80148.628427</v>
+        <v>80148.628427000003</v>
       </c>
       <c r="V14" s="1">
-        <v>22.263508</v>
+        <v>22.263508000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>960.150000</v>
+        <v>960.15</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.329400</v>
+        <v>-90.329400000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>80159.152078</v>
+        <v>80159.152077999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>22.266431</v>
+        <v>22.266431000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>967.637000</v>
+        <v>967.63699999999994</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.763200</v>
+        <v>-80.763199999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>80169.695501</v>
+        <v>80169.695500999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>22.269360</v>
+        <v>22.269359999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.834000</v>
+        <v>972.83399999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.215100</v>
+        <v>-80.215100000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>80180.179439</v>
       </c>
       <c r="AK14" s="1">
-        <v>22.272272</v>
+        <v>22.272272000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.851000</v>
+        <v>980.851</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.736200</v>
+        <v>-87.736199999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>80190.625185</v>
+        <v>80190.625184999997</v>
       </c>
       <c r="AP14" s="1">
         <v>22.275174</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.100000</v>
+        <v>990.1</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.439000</v>
+        <v>-102.43899999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>80202.032179</v>
+        <v>80202.032179000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>22.278342</v>
+        <v>22.278341999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.738000</v>
+        <v>-123.738</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>80213.096436</v>
+        <v>80213.096436000007</v>
       </c>
       <c r="AZ14" s="1">
         <v>22.281416</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.180000</v>
+        <v>1011.18</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.307000</v>
+        <v>-142.30699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>80224.069925</v>
+        <v>80224.069925000003</v>
       </c>
       <c r="BE14" s="1">
         <v>22.284464</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.397000</v>
+        <v>-226.39699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>80235.209078</v>
       </c>
       <c r="BJ14" s="1">
-        <v>22.287558</v>
+        <v>22.287558000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.980000</v>
+        <v>-360.98</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>80246.663720</v>
+        <v>80246.663719999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>22.290740</v>
+        <v>22.29074</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.165000</v>
+        <v>-568.16499999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>80258.313752</v>
+        <v>80258.313752000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>22.293976</v>
+        <v>22.293976000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.730000</v>
+        <v>1413.73</v>
       </c>
       <c r="BV14" s="1">
-        <v>-789.147000</v>
+        <v>-789.14700000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>80269.180570</v>
+        <v>80269.180569999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>22.296995</v>
+        <v>22.296994999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.400000</v>
+        <v>1573.4</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1019.390000</v>
+        <v>-1019.39</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>80281.252698</v>
+        <v>80281.252697999997</v>
       </c>
       <c r="CD14" s="1">
         <v>22.300348</v>
       </c>
       <c r="CE14" s="1">
-        <v>1976.020000</v>
+        <v>1976.02</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1557.310000</v>
+        <v>-1557.31</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>80108.177200</v>
+        <v>80108.177200000006</v>
       </c>
       <c r="B15" s="1">
         <v>22.252271</v>
       </c>
       <c r="C15" s="1">
-        <v>906.643000</v>
+        <v>906.64300000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.537000</v>
+        <v>-194.53700000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>80118.732561</v>
+        <v>80118.732560999997</v>
       </c>
       <c r="G15" s="1">
-        <v>22.255203</v>
+        <v>22.255203000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>923.454000</v>
+        <v>923.45399999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.413000</v>
+        <v>-165.41300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>80128.926872</v>
+        <v>80128.926871999996</v>
       </c>
       <c r="L15" s="1">
         <v>22.258035</v>
       </c>
       <c r="M15" s="1">
-        <v>946.643000</v>
+        <v>946.64300000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.433000</v>
+        <v>-119.43300000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>80139.102262</v>
       </c>
       <c r="Q15" s="1">
-        <v>22.260862</v>
+        <v>22.260861999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>953.428000</v>
+        <v>953.428</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.172000</v>
+        <v>-104.172</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>80148.972152</v>
+        <v>80148.972152000002</v>
       </c>
       <c r="V15" s="1">
         <v>22.263603</v>
       </c>
       <c r="W15" s="1">
-        <v>960.227000</v>
+        <v>960.22699999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.356900</v>
+        <v>-90.356899999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>80159.499752</v>
+        <v>80159.499752000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>22.266528</v>
+        <v>22.266528000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>967.673000</v>
+        <v>967.673</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.778800</v>
+        <v>-80.778800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>80170.038270</v>
+        <v>80170.038270000005</v>
       </c>
       <c r="AF15" s="1">
-        <v>22.269455</v>
+        <v>22.269455000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.779000</v>
+        <v>972.779</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.215000</v>
+        <v>-80.215000000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>80180.533585</v>
+        <v>80180.533584999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>22.272370</v>
+        <v>22.272369999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.867000</v>
+        <v>980.86699999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.738000</v>
+        <v>-87.738</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>80191.344386</v>
+        <v>80191.344385999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>22.275373</v>
+        <v>22.275372999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.101000</v>
+        <v>990.101</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>80202.423026</v>
+        <v>80202.423026000004</v>
       </c>
       <c r="AU15" s="1">
         <v>22.278451</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.510000</v>
+        <v>1001.51</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.738000</v>
+        <v>-123.738</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>80213.469924</v>
+        <v>80213.469924000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>22.281519</v>
+        <v>22.281518999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.170000</v>
+        <v>1011.17</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.301000</v>
+        <v>-142.30099999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>80224.434028</v>
+        <v>80224.434028000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>22.284565</v>
+        <v>22.284565000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.490000</v>
+        <v>1056.49</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.406000</v>
+        <v>-226.40600000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>80235.898551</v>
+        <v>80235.898551000006</v>
       </c>
       <c r="BJ15" s="1">
-        <v>22.287750</v>
+        <v>22.287749999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.990000</v>
+        <v>1135.99</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.982000</v>
+        <v>-360.98200000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>80247.383420</v>
+        <v>80247.383419999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>22.290940</v>
+        <v>22.290939999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1267.010000</v>
+        <v>1267.01</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.226000</v>
+        <v>-568.226</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>80258.449624</v>
+        <v>80258.449624000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>22.294014</v>
+        <v>22.294014000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.780000</v>
+        <v>1413.78</v>
       </c>
       <c r="BV15" s="1">
-        <v>-789.037000</v>
+        <v>-789.03700000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>80269.617578</v>
+        <v>80269.617578000005</v>
       </c>
       <c r="BY15" s="1">
-        <v>22.297116</v>
+        <v>22.297115999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.440000</v>
+        <v>1573.44</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1019.430000</v>
+        <v>-1019.43</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>80281.770521</v>
+        <v>80281.770520999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>22.300492</v>
+        <v>22.300491999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1976.290000</v>
+        <v>1976.29</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1557.560000</v>
+        <v>-1557.56</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>80108.602270</v>
+        <v>80108.602270000003</v>
       </c>
       <c r="B16" s="1">
-        <v>22.252390</v>
+        <v>22.252389999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>906.390000</v>
+        <v>906.39</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.687000</v>
+        <v>-194.68700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>80119.000400</v>
+        <v>80119.000400000004</v>
       </c>
       <c r="G16" s="1">
-        <v>22.255278</v>
+        <v>22.255278000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>923.241000</v>
+        <v>923.24099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.505000</v>
+        <v>-165.505</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>80129.207571</v>
+        <v>80129.207571000006</v>
       </c>
       <c r="L16" s="1">
-        <v>22.258113</v>
+        <v>22.258113000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>946.685000</v>
+        <v>946.68499999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.383000</v>
+        <v>-119.383</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>80139.455909</v>
+        <v>80139.455908999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>22.260960</v>
+        <v>22.260960000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>953.455000</v>
+        <v>953.45500000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.163000</v>
+        <v>-104.163</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>80149.315387</v>
+        <v>80149.315386999995</v>
       </c>
       <c r="V16" s="1">
-        <v>22.263699</v>
+        <v>22.263698999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>960.155000</v>
+        <v>960.15499999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.428600</v>
+        <v>-90.428600000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>80159.850906</v>
+        <v>80159.850906000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>22.266625</v>
+        <v>22.266625000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>967.649000</v>
+        <v>967.649</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.794600</v>
+        <v>-80.794600000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>80170.725228</v>
+        <v>80170.725227999996</v>
       </c>
       <c r="AF16" s="1">
-        <v>22.269646</v>
+        <v>22.269646000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.823000</v>
+        <v>972.82299999999998</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.250100</v>
+        <v>-80.250100000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>80181.225998</v>
+        <v>80181.225997999994</v>
       </c>
       <c r="AK16" s="1">
-        <v>22.272563</v>
+        <v>22.272563000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.859000</v>
+        <v>980.85900000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.740900</v>
+        <v>-87.740899999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>80191.705969</v>
+        <v>80191.705969000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>22.275474</v>
+        <v>22.275473999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.132000</v>
+        <v>990.13199999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>80202.787091</v>
+        <v>80202.787091000006</v>
       </c>
       <c r="AU16" s="1">
-        <v>22.278552</v>
+        <v>22.278552000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.743000</v>
+        <v>-123.74299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>80213.851347</v>
+        <v>80213.851347000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>22.281625</v>
+        <v>22.281624999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.180000</v>
+        <v>1011.18</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.299000</v>
+        <v>-142.29900000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>80225.107095</v>
+        <v>80225.107094999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>22.284752</v>
+        <v>22.284752000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.410000</v>
+        <v>-226.41</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>80236.334501</v>
+        <v>80236.334501000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>22.287871</v>
+        <v>22.287870999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.976000</v>
+        <v>-360.976</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>80247.499975</v>
+        <v>80247.499974999999</v>
       </c>
       <c r="BO16" s="1">
         <v>22.290972</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.950000</v>
+        <v>1266.95</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.211000</v>
+        <v>-568.21100000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>80258.859319</v>
+        <v>80258.859318999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>22.294128</v>
+        <v>22.294128000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.710000</v>
+        <v>1413.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-789.032000</v>
+        <v>-789.03200000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>80270.034185</v>
+        <v>80270.034184999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>22.297232</v>
+        <v>22.297232000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.480000</v>
+        <v>1573.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1019.430000</v>
+        <v>-1019.43</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>80282.325051</v>
+        <v>80282.325051000007</v>
       </c>
       <c r="CD16" s="1">
         <v>22.300646</v>
       </c>
       <c r="CE16" s="1">
-        <v>1975.660000</v>
+        <v>1975.66</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1558.520000</v>
+        <v>-1558.52</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>80108.877055</v>
+        <v>80108.877055000004</v>
       </c>
       <c r="B17" s="1">
-        <v>22.252466</v>
+        <v>22.252465999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>906.512000</v>
+        <v>906.51199999999994</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.730000</v>
+        <v>-194.73</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>80119.345648</v>
+        <v>80119.345648000002</v>
       </c>
       <c r="G17" s="1">
         <v>22.255374</v>
       </c>
       <c r="H17" s="1">
-        <v>923.627000</v>
+        <v>923.62699999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.648000</v>
+        <v>-165.648</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>80129.578104</v>
       </c>
       <c r="L17" s="1">
-        <v>22.258216</v>
+        <v>22.258216000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>946.596000</v>
+        <v>946.596</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.466000</v>
+        <v>-119.46599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>80139.804101</v>
+        <v>80139.804101000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>22.261057</v>
+        <v>22.261057000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>953.427000</v>
+        <v>953.42700000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.178000</v>
+        <v>-104.178</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>80150.001351</v>
+        <v>80150.001350999999</v>
       </c>
       <c r="V17" s="1">
-        <v>22.263889</v>
+        <v>22.263888999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>960.213000</v>
+        <v>960.21299999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.481700</v>
+        <v>-90.481700000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>80160.544809</v>
+        <v>80160.544808999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>22.266818</v>
+        <v>22.266818000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>967.640000</v>
+        <v>967.64</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.788400</v>
+        <v>-80.788399999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>80171.067931</v>
+        <v>80171.067930999998</v>
       </c>
       <c r="AF17" s="1">
         <v>22.269741</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.839000</v>
+        <v>972.83900000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.251100</v>
+        <v>-80.251099999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>80181.576211</v>
+        <v>80181.576211000007</v>
       </c>
       <c r="AK17" s="1">
-        <v>22.272660</v>
+        <v>22.272659999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.837000</v>
+        <v>980.83699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.741600</v>
+        <v>-87.741600000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>80192.065072</v>
+        <v>80192.065071999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>22.275574</v>
+        <v>22.275573999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.107000</v>
+        <v>990.10699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.443000</v>
+        <v>-102.443</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>80203.465959</v>
+        <v>80203.465958999994</v>
       </c>
       <c r="AU17" s="1">
         <v>22.278741</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>80214.537842</v>
+        <v>80214.537842000005</v>
       </c>
       <c r="AZ17" s="1">
-        <v>22.281816</v>
+        <v>22.281815999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.190000</v>
+        <v>1011.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.318000</v>
+        <v>-142.31800000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>80225.543548</v>
+        <v>80225.543548000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>22.284873</v>
+        <v>22.284873000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.470000</v>
+        <v>1056.47</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.419000</v>
+        <v>-226.41900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>80236.708997</v>
+        <v>80236.708996999994</v>
       </c>
       <c r="BJ17" s="1">
-        <v>22.287975</v>
+        <v>22.287974999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.950000</v>
+        <v>1135.95</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.969000</v>
+        <v>-360.96899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>80247.909173</v>
+        <v>80247.909172999993</v>
       </c>
       <c r="BO17" s="1">
         <v>22.291086</v>
       </c>
       <c r="BP17" s="1">
-        <v>1267.010000</v>
+        <v>1267.01</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.222000</v>
+        <v>-568.22199999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>80259.286407</v>
+        <v>80259.286407000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>22.294246</v>
+        <v>22.294246000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.740000</v>
+        <v>1413.74</v>
       </c>
       <c r="BV17" s="1">
-        <v>-788.910000</v>
+        <v>-788.91</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>80270.482568</v>
+        <v>80270.482568000007</v>
       </c>
       <c r="BY17" s="1">
-        <v>22.297356</v>
+        <v>22.297356000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.470000</v>
+        <v>1573.47</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1019.390000</v>
+        <v>-1019.39</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>80282.851305</v>
+        <v>80282.851305000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>22.300792</v>
+        <v>22.300792000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1975.830000</v>
+        <v>1975.83</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1557.190000</v>
+        <v>-1557.19</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>80109.219821</v>
+        <v>80109.219821000006</v>
       </c>
       <c r="B18" s="1">
         <v>22.252561</v>
       </c>
       <c r="C18" s="1">
-        <v>906.526000</v>
+        <v>906.52599999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.601000</v>
+        <v>-194.601</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>80119.690060</v>
+        <v>80119.690059999994</v>
       </c>
       <c r="G18" s="1">
-        <v>22.255469</v>
+        <v>22.255469000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>923.118000</v>
+        <v>923.11800000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.782000</v>
+        <v>-165.78200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>80130.249169</v>
+        <v>80130.249169000002</v>
       </c>
       <c r="L18" s="1">
-        <v>22.258403</v>
+        <v>22.258403000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>946.535000</v>
+        <v>946.53499999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.539000</v>
+        <v>-119.539</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>80140.501973</v>
+        <v>80140.501973000006</v>
       </c>
       <c r="Q18" s="1">
-        <v>22.261251</v>
+        <v>22.261251000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>953.436000</v>
+        <v>953.43600000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.193000</v>
+        <v>-104.193</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>80150.345112</v>
+        <v>80150.345111999995</v>
       </c>
       <c r="V18" s="1">
-        <v>22.263985</v>
+        <v>22.263985000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>960.226000</v>
+        <v>960.226</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.462100</v>
+        <v>-90.462100000000007</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>80160.895977</v>
+        <v>80160.895976999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>22.266916</v>
+        <v>22.266915999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>967.694000</v>
+        <v>967.69399999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.901200</v>
+        <v>-80.901200000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>80171.411163</v>
+        <v>80171.411162999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>22.269836</v>
+        <v>22.269836000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.768000</v>
+        <v>972.76800000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.202600</v>
+        <v>-80.202600000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>80181.922915</v>
+        <v>80181.922915000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>22.272756</v>
+        <v>22.272756000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.877000</v>
+        <v>980.87699999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.728500</v>
+        <v>-87.728499999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>80192.766718</v>
+        <v>80192.766717999999</v>
       </c>
       <c r="AP18" s="1">
         <v>22.275769</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.131000</v>
+        <v>990.13099999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.449000</v>
+        <v>-102.449</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>80203.914993</v>
+        <v>80203.914992999999</v>
       </c>
       <c r="AU18" s="1">
         <v>22.278865</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>80214.935105</v>
+        <v>80214.935104999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>22.281926</v>
+        <v>22.281925999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.307000</v>
+        <v>-142.30699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>80225.905124</v>
+        <v>80225.905123999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>22.284974</v>
+        <v>22.284973999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.500000</v>
+        <v>1056.5</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.406000</v>
+        <v>-226.40600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>80237.085444</v>
+        <v>80237.085443999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>22.288079</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.970000</v>
+        <v>-360.97</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>80248.305445</v>
+        <v>80248.305445000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>22.291196</v>
+        <v>22.291195999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.940000</v>
+        <v>1266.94</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.187000</v>
+        <v>-568.18700000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>80259.692102</v>
+        <v>80259.692102000001</v>
       </c>
       <c r="BT18" s="1">
         <v>22.294359</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.680000</v>
+        <v>1413.68</v>
       </c>
       <c r="BV18" s="1">
-        <v>-788.894000</v>
+        <v>-788.89400000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>80270.902183</v>
+        <v>80270.902182999998</v>
       </c>
       <c r="BY18" s="1">
         <v>22.297473</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.420000</v>
+        <v>1573.42</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1019.270000</v>
+        <v>-1019.27</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>80283.374583</v>
+        <v>80283.374582999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>22.300937</v>
+        <v>22.300937000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.330000</v>
+        <v>1974.33</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1557.830000</v>
+        <v>-1557.83</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>80109.564509</v>
+        <v>80109.564509000003</v>
       </c>
       <c r="B19" s="1">
-        <v>22.252657</v>
+        <v>22.252656999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>906.477000</v>
+        <v>906.47699999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.816000</v>
+        <v>-194.816</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>80120.379775</v>
+        <v>80120.379774999994</v>
       </c>
       <c r="G19" s="1">
         <v>22.255661</v>
       </c>
       <c r="H19" s="1">
-        <v>923.732000</v>
+        <v>923.73199999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.179000</v>
+        <v>-165.179</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>80130.601826</v>
+        <v>80130.601825999998</v>
       </c>
       <c r="L19" s="1">
-        <v>22.258501</v>
+        <v>22.258500999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>946.572000</v>
+        <v>946.572</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.387000</v>
+        <v>-119.387</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>80140.848181</v>
+        <v>80140.848180999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>22.261347</v>
+        <v>22.261347000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>953.409000</v>
+        <v>953.40899999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.144000</v>
+        <v>-104.14400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>80150.687187</v>
+        <v>80150.687187000003</v>
       </c>
       <c r="V19" s="1">
-        <v>22.264080</v>
+        <v>22.26408</v>
       </c>
       <c r="W19" s="1">
-        <v>960.117000</v>
+        <v>960.11699999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.476800</v>
+        <v>-90.476799999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>80161.241690</v>
+        <v>80161.241689999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>22.267012</v>
+        <v>22.267012000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>967.673000</v>
+        <v>967.673</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.772500</v>
+        <v>-80.772499999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>80172.081755</v>
+        <v>80172.081755000007</v>
       </c>
       <c r="AF19" s="1">
-        <v>22.270023</v>
+        <v>22.270022999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.765000</v>
+        <v>972.76499999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.225600</v>
+        <v>-80.2256</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>80182.399532</v>
+        <v>80182.399531999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>22.272889</v>
+        <v>22.272888999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.826000</v>
+        <v>980.82600000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.739600</v>
+        <v>-87.739599999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>80193.165694</v>
+        <v>80193.165693999996</v>
       </c>
       <c r="AP19" s="1">
         <v>22.275879</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.120000</v>
+        <v>990.12</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.443000</v>
+        <v>-102.443</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>80204.279056</v>
+        <v>80204.279055999999</v>
       </c>
       <c r="AU19" s="1">
         <v>22.278966</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.550000</v>
+        <v>1001.55</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>80215.310577</v>
+        <v>80215.310576999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>22.282031</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.150000</v>
+        <v>1011.15</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.323000</v>
+        <v>-142.32300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>80226.267699</v>
+        <v>80226.267699000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.285074</v>
+        <v>22.285074000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.490000</v>
+        <v>1056.49</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.398000</v>
+        <v>-226.398</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>80237.517955</v>
+        <v>80237.517955000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>22.288199</v>
+        <v>22.288198999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.990000</v>
+        <v>1135.99</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.977000</v>
+        <v>-360.97699999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>80248.746885</v>
       </c>
       <c r="BO19" s="1">
-        <v>22.291319</v>
+        <v>22.291319000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.172000</v>
+        <v>-568.17200000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>80260.113702</v>
+        <v>80260.113702000002</v>
       </c>
       <c r="BT19" s="1">
         <v>22.294476</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.630000</v>
+        <v>1413.63</v>
       </c>
       <c r="BV19" s="1">
-        <v>-788.762000</v>
+        <v>-788.76199999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>80271.325767</v>
+        <v>80271.325767000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>22.297590</v>
+        <v>22.29759</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.450000</v>
+        <v>1573.45</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1019.370000</v>
+        <v>-1019.37</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>80283.910264</v>
+        <v>80283.910264000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>22.301086</v>
+        <v>22.301086000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1976.200000</v>
+        <v>1976.2</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1558.140000</v>
+        <v>-1558.14</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>80110.242572</v>
+        <v>80110.242572000003</v>
       </c>
       <c r="B20" s="1">
-        <v>22.252845</v>
+        <v>22.252845000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>906.527000</v>
+        <v>906.52700000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.697000</v>
+        <v>-194.697</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>80120.723292</v>
+        <v>80120.723291999995</v>
       </c>
       <c r="G20" s="1">
-        <v>22.255756</v>
+        <v>22.255756000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>923.516000</v>
+        <v>923.51599999999996</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.573000</v>
+        <v>-165.57300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>80130.945097</v>
+        <v>80130.945097000003</v>
       </c>
       <c r="L20" s="1">
-        <v>22.258596</v>
+        <v>22.258596000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>946.569000</v>
+        <v>946.56899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.534000</v>
+        <v>-119.53400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>80141.195875</v>
+        <v>80141.195875000005</v>
       </c>
       <c r="Q20" s="1">
         <v>22.261443</v>
       </c>
       <c r="R20" s="1">
-        <v>953.419000</v>
+        <v>953.41899999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.167000</v>
+        <v>-104.167</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>80151.345015</v>
+        <v>80151.345014999999</v>
       </c>
       <c r="V20" s="1">
         <v>22.264263</v>
       </c>
       <c r="W20" s="1">
-        <v>960.204000</v>
+        <v>960.20399999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.559500</v>
+        <v>-90.5595</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>80161.918727</v>
+        <v>80161.918726999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>22.267200</v>
+        <v>22.267199999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>967.667000</v>
+        <v>967.66700000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.817300</v>
+        <v>-80.817300000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>80172.449785</v>
+        <v>80172.449785000004</v>
       </c>
       <c r="AF20" s="1">
         <v>22.270125</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.748000</v>
+        <v>972.74800000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.127500</v>
+        <v>-80.127499999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>80182.629713</v>
+        <v>80182.629713000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>22.272953</v>
+        <v>22.272953000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.861000</v>
+        <v>980.86099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.712900</v>
+        <v>-87.712900000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>80193.529758</v>
+        <v>80193.529758000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.275980</v>
+        <v>22.275980000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.125000</v>
+        <v>990.125</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.432000</v>
+        <v>-102.432</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>80204.644607</v>
+        <v>80204.644606999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>22.279068</v>
+        <v>22.279067999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.747000</v>
+        <v>-123.747</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>80215.687538</v>
+        <v>80215.687537999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>22.282135</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.190000</v>
+        <v>1011.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.309000</v>
+        <v>-142.309</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>80226.700242</v>
+        <v>80226.700242000006</v>
       </c>
       <c r="BE20" s="1">
-        <v>22.285195</v>
+        <v>22.285195000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.388000</v>
+        <v>-226.38800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>80237.842372</v>
+        <v>80237.842371999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>22.288290</v>
+        <v>22.28829</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.961000</v>
+        <v>-360.96100000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>80249.124836</v>
+        <v>80249.124836000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>22.291424</v>
+        <v>22.291423999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.980000</v>
+        <v>1266.98</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.204000</v>
+        <v>-568.20399999999995</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>80260.533350</v>
+        <v>80260.533349999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>22.294593</v>
+        <v>22.294592999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.620000</v>
+        <v>1413.62</v>
       </c>
       <c r="BV20" s="1">
-        <v>-788.764000</v>
+        <v>-788.76400000000001</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>80271.774151</v>
+        <v>80271.774151000005</v>
       </c>
       <c r="BY20" s="1">
         <v>22.297715</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.420000</v>
+        <v>1573.42</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1019.400000</v>
+        <v>-1019.4</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>80284.787685</v>
+        <v>80284.787685000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>22.301330</v>
+        <v>22.30133</v>
       </c>
       <c r="CE20" s="1">
-        <v>1974.730000</v>
+        <v>1974.73</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1558.610000</v>
+        <v>-1558.61</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>80110.584283</v>
+        <v>80110.584283000004</v>
       </c>
       <c r="B21" s="1">
-        <v>22.252940</v>
+        <v>22.252939999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>906.564000</v>
+        <v>906.56399999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.534000</v>
+        <v>-194.53399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>80121.075198</v>
+        <v>80121.075198000006</v>
       </c>
       <c r="G21" s="1">
-        <v>22.255854</v>
+        <v>22.255853999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>924.017000</v>
+        <v>924.01700000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.188000</v>
+        <v>-165.18799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>80131.609697</v>
+        <v>80131.609697000007</v>
       </c>
       <c r="L21" s="1">
-        <v>22.258780</v>
+        <v>22.258780000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>946.712000</v>
+        <v>946.71199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.359000</v>
+        <v>-119.35899999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>80141.861042</v>
+        <v>80141.861042000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>22.261628</v>
+        <v>22.261628000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>953.492000</v>
+        <v>953.49199999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.171000</v>
+        <v>-104.17100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>80151.717509</v>
+        <v>80151.717508999995</v>
       </c>
       <c r="V21" s="1">
-        <v>22.264366</v>
+        <v>22.264365999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>960.072000</v>
+        <v>960.072</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.389600</v>
+        <v>-90.389600000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>80162.288279</v>
       </c>
       <c r="AA21" s="1">
-        <v>22.267302</v>
+        <v>22.267302000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>967.789000</v>
+        <v>967.78899999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.762100</v>
+        <v>-80.762100000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>80172.797498</v>
@@ -5454,1450 +5870,1451 @@
         <v>22.270222</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.804000</v>
+        <v>972.80399999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.231800</v>
+        <v>-80.231800000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>80182.978364</v>
+        <v>80182.978363999995</v>
       </c>
       <c r="AK21" s="1">
-        <v>22.273050</v>
+        <v>22.273050000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.851000</v>
+        <v>980.851</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.715900</v>
+        <v>-87.715900000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>80193.888863</v>
       </c>
       <c r="AP21" s="1">
-        <v>22.276080</v>
+        <v>22.27608</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.117000</v>
+        <v>990.11699999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.424000</v>
+        <v>-102.42400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>80205.078111</v>
+        <v>80205.078110999995</v>
       </c>
       <c r="AU21" s="1">
-        <v>22.279188</v>
+        <v>22.279188000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.736000</v>
+        <v>-123.736</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>80216.154800</v>
+        <v>80216.154800000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>22.282265</v>
+        <v>22.282264999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.180000</v>
+        <v>1011.18</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.320000</v>
+        <v>-142.32</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>80226.988385</v>
+        <v>80226.988385000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>22.285275</v>
+        <v>22.285274999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.490000</v>
+        <v>1056.49</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.396000</v>
+        <v>-226.39599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>80238.230743</v>
+        <v>80238.230742999993</v>
       </c>
       <c r="BJ21" s="1">
         <v>22.288397</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.971000</v>
+        <v>-360.971</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>80249.544452</v>
+        <v>80249.544452000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>22.291540</v>
+        <v>22.291540000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.223000</v>
+        <v>-568.22299999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>80260.944126</v>
+        <v>80260.944126000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>22.294707</v>
+        <v>22.294706999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.510000</v>
+        <v>1413.51</v>
       </c>
       <c r="BV21" s="1">
-        <v>-788.745000</v>
+        <v>-788.745</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>80272.207158</v>
+        <v>80272.207158000005</v>
       </c>
       <c r="BY21" s="1">
-        <v>22.297835</v>
+        <v>22.297834999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.540000</v>
+        <v>1573.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1019.440000</v>
+        <v>-1019.44</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>80284.992113</v>
       </c>
       <c r="CD21" s="1">
-        <v>22.301387</v>
+        <v>22.301386999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1974.290000</v>
+        <v>1974.29</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1558.500000</v>
+        <v>-1558.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>80110.929996</v>
+        <v>80110.929996000006</v>
       </c>
       <c r="B22" s="1">
-        <v>22.253036</v>
+        <v>22.253036000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>906.469000</v>
+        <v>906.46900000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.694000</v>
+        <v>-194.69399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>80121.727901</v>
+        <v>80121.727901000006</v>
       </c>
       <c r="G22" s="1">
-        <v>22.256036</v>
+        <v>22.256036000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>923.751000</v>
+        <v>923.75099999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.572000</v>
+        <v>-165.572</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>80131.983679</v>
+        <v>80131.983678999997</v>
       </c>
       <c r="L22" s="1">
-        <v>22.258884</v>
+        <v>22.258883999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>946.632000</v>
+        <v>946.63199999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.377000</v>
+        <v>-119.377</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>80142.241455</v>
+        <v>80142.241454999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>22.261734</v>
+        <v>22.261734000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>953.428000</v>
+        <v>953.428</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.175000</v>
+        <v>-104.175</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>80152.061733</v>
+        <v>80152.061732999995</v>
       </c>
       <c r="V22" s="1">
-        <v>22.264462</v>
+        <v>22.264462000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>960.157000</v>
+        <v>960.15700000000004</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.472000</v>
+        <v>-90.471999999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>80162.640408</v>
+        <v>80162.640408000007</v>
       </c>
       <c r="AA22" s="1">
-        <v>22.267400</v>
+        <v>22.267399999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>967.668000</v>
+        <v>967.66800000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.808600</v>
+        <v>-80.808599999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>80173.141706</v>
+        <v>80173.141705999995</v>
       </c>
       <c r="AF22" s="1">
-        <v>22.270317</v>
+        <v>22.270316999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.806000</v>
+        <v>972.80600000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.200400</v>
+        <v>-80.200400000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>80183.399963</v>
+        <v>80183.399963000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>22.273167</v>
+        <v>22.273167000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.869000</v>
+        <v>980.86900000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.724900</v>
+        <v>-87.724900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>80194.310493</v>
+        <v>80194.310492999997</v>
       </c>
       <c r="AP22" s="1">
         <v>22.276197</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.128000</v>
+        <v>990.12800000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>80205.373233</v>
+        <v>80205.373233000006</v>
       </c>
       <c r="AU22" s="1">
-        <v>22.279270</v>
+        <v>22.27927</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.530000</v>
+        <v>1001.53</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.732000</v>
+        <v>-123.732</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>80216.421119</v>
+        <v>80216.421119000006</v>
       </c>
       <c r="AZ22" s="1">
         <v>22.282339</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.180000</v>
+        <v>1011.18</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.311000</v>
+        <v>-142.31100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>80227.351985</v>
+        <v>80227.351985000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>22.285376</v>
+        <v>22.285375999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.387000</v>
+        <v>-226.387</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>80238.608177</v>
+        <v>80238.608177000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>22.288502</v>
+        <v>22.288502000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.980000</v>
+        <v>1135.98</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.943000</v>
+        <v>-360.94299999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>80249.939763</v>
+        <v>80249.939763000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>22.291650</v>
+        <v>22.291650000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.169000</v>
+        <v>-568.16899999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>80261.382964</v>
+        <v>80261.382964000004</v>
       </c>
       <c r="BT22" s="1">
         <v>22.294829</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV22" s="1">
-        <v>-788.690000</v>
+        <v>-788.69</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>80272.628262</v>
+        <v>80272.628261999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>22.297952</v>
+        <v>22.297951999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.620000</v>
+        <v>1573.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1019.230000</v>
+        <v>-1019.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>80285.509364</v>
+        <v>80285.509363999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>22.301530</v>
+        <v>22.30153</v>
       </c>
       <c r="CE22" s="1">
-        <v>1976.170000</v>
+        <v>1976.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1558.400000</v>
+        <v>-1558.4</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>80111.585707</v>
+        <v>80111.585707000006</v>
       </c>
       <c r="B23" s="1">
         <v>22.253218</v>
       </c>
       <c r="C23" s="1">
-        <v>906.591000</v>
+        <v>906.59100000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.418000</v>
+        <v>-194.41800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>80122.110316</v>
+        <v>80122.110316000006</v>
       </c>
       <c r="G23" s="1">
-        <v>22.256142</v>
+        <v>22.256142000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>924.008000</v>
+        <v>924.00800000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.338000</v>
+        <v>-165.33799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>80132.328894</v>
+        <v>80132.328894000006</v>
       </c>
       <c r="L23" s="1">
-        <v>22.258980</v>
+        <v>22.258980000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>946.698000</v>
+        <v>946.69799999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.294000</v>
+        <v>-119.294</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>80142.593105</v>
+        <v>80142.593105000007</v>
       </c>
       <c r="Q23" s="1">
-        <v>22.261831</v>
+        <v>22.261831000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>953.435000</v>
+        <v>953.43499999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.218000</v>
+        <v>-104.218</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>80152.407444</v>
+        <v>80152.407443999997</v>
       </c>
       <c r="V23" s="1">
-        <v>22.264558</v>
+        <v>22.264558000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>960.255000</v>
+        <v>960.255</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.394600</v>
+        <v>-90.394599999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>80162.993062</v>
+        <v>80162.993061999994</v>
       </c>
       <c r="AA23" s="1">
         <v>22.267498</v>
       </c>
       <c r="AB23" s="1">
-        <v>967.692000</v>
+        <v>967.69200000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.709000</v>
+        <v>-80.709000000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>80173.563838</v>
+        <v>80173.563838000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>22.270434</v>
+        <v>22.270434000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.763000</v>
+        <v>972.76300000000003</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.197200</v>
+        <v>-80.197199999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>80183.679211</v>
+        <v>80183.679210999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>22.273244</v>
+        <v>22.273243999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.848000</v>
+        <v>980.84799999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.747600</v>
+        <v>-87.747600000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>80194.608060</v>
+        <v>80194.608059999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>22.276280</v>
+        <v>22.27628</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.116000</v>
+        <v>990.11599999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.434000</v>
+        <v>-102.434</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>80205.737823</v>
+        <v>80205.737823000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>22.279372</v>
+        <v>22.279371999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>80216.766335</v>
+        <v>80216.766334999993</v>
       </c>
       <c r="AZ23" s="1">
         <v>22.282435</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.322000</v>
+        <v>-142.322</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>80227.711101</v>
+        <v>80227.711100999994</v>
       </c>
       <c r="BE23" s="1">
-        <v>22.285475</v>
+        <v>22.285475000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.490000</v>
+        <v>1056.49</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.404000</v>
+        <v>-226.404</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>80239.357618</v>
+        <v>80239.357617999995</v>
       </c>
       <c r="BJ23" s="1">
-        <v>22.288710</v>
+        <v>22.288709999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.946000</v>
+        <v>-360.94600000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>80250.757170</v>
+        <v>80250.757169999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>22.291877</v>
+        <v>22.291876999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.201000</v>
+        <v>-568.20100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>80261.813988</v>
+        <v>80261.813987999994</v>
       </c>
       <c r="BT23" s="1">
-        <v>22.294948</v>
+        <v>22.294948000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.370000</v>
+        <v>1413.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-788.750000</v>
+        <v>-788.75</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>80273.048373</v>
+        <v>80273.048372999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>22.298069</v>
+        <v>22.298069000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.420000</v>
+        <v>1573.42</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1019.310000</v>
+        <v>-1019.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>80286.343635</v>
+        <v>80286.343634999997</v>
       </c>
       <c r="CD23" s="1">
         <v>22.301762</v>
       </c>
       <c r="CE23" s="1">
-        <v>1975.340000</v>
+        <v>1975.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1556.680000</v>
+        <v>-1556.68</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>80111.954729</v>
+        <v>80111.954729000005</v>
       </c>
       <c r="B24" s="1">
         <v>22.253321</v>
       </c>
       <c r="C24" s="1">
-        <v>906.539000</v>
+        <v>906.53899999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.809000</v>
+        <v>-194.809</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>80122.453547</v>
+        <v>80122.453546999997</v>
       </c>
       <c r="G24" s="1">
-        <v>22.256237</v>
+        <v>22.256236999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>924.192000</v>
+        <v>924.19200000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.613000</v>
+        <v>-165.613</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>80132.674143</v>
+        <v>80132.674142999997</v>
       </c>
       <c r="L24" s="1">
         <v>22.259076</v>
       </c>
       <c r="M24" s="1">
-        <v>946.639000</v>
+        <v>946.63900000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.433000</v>
+        <v>-119.43300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>80142.939846</v>
+        <v>80142.939845999994</v>
       </c>
       <c r="Q24" s="1">
-        <v>22.261928</v>
+        <v>22.261928000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>953.400000</v>
+        <v>953.4</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.183000</v>
+        <v>-104.18300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>80152.836491</v>
+        <v>80152.836490999995</v>
       </c>
       <c r="V24" s="1">
-        <v>22.264677</v>
+        <v>22.264676999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>960.205000</v>
+        <v>960.20500000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.425400</v>
+        <v>-90.425399999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>80163.426070</v>
+        <v>80163.426070000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>22.267618</v>
+        <v>22.267617999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.665000</v>
+        <v>967.66499999999996</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.773400</v>
+        <v>-80.773399999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>80173.837097</v>
+        <v>80173.837096999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>22.270510</v>
+        <v>22.270510000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.799000</v>
+        <v>972.79899999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.213600</v>
+        <v>-80.2136</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>80184.024955</v>
+        <v>80184.024955000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>22.273340</v>
+        <v>22.273340000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.872000</v>
+        <v>980.87199999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.732300</v>
+        <v>-87.732299999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>80194.971630</v>
+        <v>80194.97163</v>
       </c>
       <c r="AP24" s="1">
-        <v>22.276381</v>
+        <v>22.276381000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.111000</v>
+        <v>990.11099999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.461000</v>
+        <v>-102.461</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>80206.101856</v>
+        <v>80206.101855999994</v>
       </c>
       <c r="AU24" s="1">
-        <v>22.279473</v>
+        <v>22.279472999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.738000</v>
+        <v>-123.738</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>80217.486045</v>
+        <v>80217.486044999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>22.282635</v>
+        <v>22.282634999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.180000</v>
+        <v>1011.18</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.314000</v>
+        <v>-142.31399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>80228.434225</v>
+        <v>80228.434225000005</v>
       </c>
       <c r="BE24" s="1">
-        <v>22.285676</v>
+        <v>22.285675999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.500000</v>
+        <v>1056.5</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.390000</v>
+        <v>-226.39</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>80239.733584</v>
+        <v>80239.733584000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>22.288815</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.990000</v>
+        <v>1135.99</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.956000</v>
+        <v>-360.95600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>80251.152979</v>
+        <v>80251.152979000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>22.291987</v>
+        <v>22.291986999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.970000</v>
+        <v>1266.97</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.200000</v>
+        <v>-568.20000000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>80262.222196</v>
+        <v>80262.222196000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>22.295062</v>
+        <v>22.295062000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.270000</v>
+        <v>1413.27</v>
       </c>
       <c r="BV24" s="1">
-        <v>-788.690000</v>
+        <v>-788.69</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>80273.780963</v>
+        <v>80273.780962999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>22.298272</v>
+        <v>22.298272000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.370000</v>
+        <v>1573.37</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1019.270000</v>
+        <v>-1019.27</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>80286.547492</v>
+        <v>80286.547491999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>22.301819</v>
+        <v>22.301818999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1974.160000</v>
+        <v>1974.16</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1557.790000</v>
+        <v>-1557.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>80112.309369</v>
+        <v>80112.309368999995</v>
       </c>
       <c r="B25" s="1">
-        <v>22.253419</v>
+        <v>22.253419000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>906.445000</v>
+        <v>906.44500000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.777000</v>
+        <v>-194.77699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>80122.800251</v>
+        <v>80122.800250999993</v>
       </c>
       <c r="G25" s="1">
-        <v>22.256333</v>
+        <v>22.256333000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>923.922000</v>
+        <v>923.92200000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.934000</v>
+        <v>-165.934</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>80133.103149</v>
+        <v>80133.103149000002</v>
       </c>
       <c r="L25" s="1">
-        <v>22.259195</v>
+        <v>22.259194999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>946.562000</v>
+        <v>946.56200000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.314000</v>
+        <v>-119.31399999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>80143.366368</v>
+        <v>80143.366368000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>22.262046</v>
+        <v>22.262046000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>953.397000</v>
+        <v>953.39700000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.160000</v>
+        <v>-104.16</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>80153.113749</v>
+        <v>80153.113748999996</v>
       </c>
       <c r="V25" s="1">
         <v>22.264754</v>
       </c>
       <c r="W25" s="1">
-        <v>960.118000</v>
+        <v>960.11800000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.360400</v>
+        <v>-90.360399999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>80163.692955</v>
+        <v>80163.692955000006</v>
       </c>
       <c r="AA25" s="1">
         <v>22.267692</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.726000</v>
+        <v>967.726</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.831200</v>
+        <v>-80.831199999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>80174.185783</v>
+        <v>80174.185782999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>22.270607</v>
+        <v>22.270606999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.820000</v>
+        <v>972.82</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.212600</v>
+        <v>-80.212599999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>80184.377578</v>
       </c>
       <c r="AK25" s="1">
-        <v>22.273438</v>
+        <v>22.273437999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.873000</v>
+        <v>980.87300000000005</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.729700</v>
+        <v>-87.729699999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>80195.332219</v>
+        <v>80195.332219000004</v>
       </c>
       <c r="AP25" s="1">
         <v>22.276481</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.123000</v>
+        <v>990.12300000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.456000</v>
+        <v>-102.456</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>80206.827004</v>
+        <v>80206.827004000006</v>
       </c>
       <c r="AU25" s="1">
         <v>22.279674</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.540000</v>
+        <v>1001.54</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>80217.846125</v>
+        <v>80217.846124999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>22.282735</v>
+        <v>22.282734999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.160000</v>
+        <v>1011.16</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.290000</v>
+        <v>-142.29</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>80228.794819</v>
+        <v>80228.794819000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>22.285776</v>
+        <v>22.285775999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.500000</v>
+        <v>1056.5</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.412000</v>
+        <v>-226.41200000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>80240.108101</v>
+        <v>80240.108101000005</v>
       </c>
       <c r="BJ25" s="1">
         <v>22.288919</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.970000</v>
+        <v>1135.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.971000</v>
+        <v>-360.971</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>80251.883586</v>
+        <v>80251.883585999996</v>
       </c>
       <c r="BO25" s="1">
-        <v>22.292190</v>
+        <v>22.292190000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.960000</v>
+        <v>1266.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.196000</v>
+        <v>-568.19600000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>80262.960746</v>
+        <v>80262.960745999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>22.295267</v>
+        <v>22.295266999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.240000</v>
+        <v>1413.24</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.838000</v>
+        <v>-788.83799999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>80273.894083</v>
+        <v>80273.894083000007</v>
       </c>
       <c r="BY25" s="1">
-        <v>22.298304</v>
+        <v>22.298304000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.510000</v>
+        <v>1573.51</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1019.390000</v>
+        <v>-1019.39</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>80287.066339</v>
+        <v>80287.066338999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>22.301963</v>
+        <v>22.301963000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1974.120000</v>
+        <v>1974.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1557.650000</v>
+        <v>-1557.65</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>80112.663018</v>
+        <v>80112.663018000007</v>
       </c>
       <c r="B26" s="1">
         <v>22.253518</v>
       </c>
       <c r="C26" s="1">
-        <v>906.467000</v>
+        <v>906.46699999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.807000</v>
+        <v>-194.80699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>80123.221883</v>
+        <v>80123.221883000006</v>
       </c>
       <c r="G26" s="1">
-        <v>22.256451</v>
+        <v>22.256450999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>923.558000</v>
+        <v>923.55799999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.736000</v>
+        <v>-165.73599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>80133.382895</v>
+        <v>80133.382895000002</v>
       </c>
       <c r="L26" s="1">
         <v>22.259273</v>
       </c>
       <c r="M26" s="1">
-        <v>946.698000</v>
+        <v>946.69799999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.404000</v>
+        <v>-119.404</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>80143.649087</v>
+        <v>80143.649086999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>22.262125</v>
+        <v>22.262125000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>953.446000</v>
+        <v>953.44600000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.144000</v>
+        <v>-104.14400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>80153.461939</v>
+        <v>80153.461939000001</v>
       </c>
       <c r="V26" s="1">
         <v>22.264851</v>
       </c>
       <c r="W26" s="1">
-        <v>960.104000</v>
+        <v>960.10400000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.385000</v>
+        <v>-90.385000000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>80164.044085</v>
+        <v>80164.044085000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>22.267790</v>
+        <v>22.267790000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>967.718000</v>
+        <v>967.71799999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.766900</v>
+        <v>-80.766900000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>80174.524583</v>
+        <v>80174.524583000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>22.270701</v>
+        <v>22.270700999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.810000</v>
+        <v>972.81</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.192700</v>
+        <v>-80.192700000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>80185.074985</v>
+        <v>80185.074984999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>22.273632</v>
+        <v>22.273631999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.884000</v>
+        <v>980.88400000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.727300</v>
+        <v>-87.7273</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>80196.051914</v>
+        <v>80196.051913999996</v>
       </c>
       <c r="AP26" s="1">
         <v>22.276681</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.129000</v>
+        <v>990.12900000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.446000</v>
+        <v>-102.446</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>80207.215648</v>
+        <v>80207.215647999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>22.279782</v>
+        <v>22.279782000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.520000</v>
+        <v>1001.52</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.743000</v>
+        <v>-123.74299999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>80218.204270</v>
+        <v>80218.204270000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>22.282835</v>
+        <v>22.282834999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.170000</v>
+        <v>1011.17</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.298000</v>
+        <v>-142.298</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>80229.155406</v>
+        <v>80229.155406000005</v>
       </c>
       <c r="BE26" s="1">
-        <v>22.285877</v>
+        <v>22.285876999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.480000</v>
+        <v>1056.48</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.402000</v>
+        <v>-226.40199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>80240.809903</v>
+        <v>80240.809903000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>22.289114</v>
+        <v>22.289114000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.960000</v>
+        <v>1135.96</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.980000</v>
+        <v>-360.98</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>80252.384048</v>
+        <v>80252.384048000007</v>
       </c>
       <c r="BO26" s="1">
-        <v>22.292329</v>
+        <v>22.292328999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.170000</v>
+        <v>-568.16999999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>80263.083250</v>
+        <v>80263.083249999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>22.295301</v>
+        <v>22.295300999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.130000</v>
+        <v>1413.13</v>
       </c>
       <c r="BV26" s="1">
-        <v>-788.858000</v>
+        <v>-788.85799999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>80274.328051</v>
+        <v>80274.328051000004</v>
       </c>
       <c r="BY26" s="1">
-        <v>22.298424</v>
+        <v>22.298424000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.400000</v>
+        <v>1573.4</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1019.320000</v>
+        <v>-1019.32</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>80287.614385</v>
+        <v>80287.614384999993</v>
       </c>
       <c r="CD26" s="1">
-        <v>22.302115</v>
+        <v>22.302115000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1975.060000</v>
+        <v>1975.06</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1556.840000</v>
+        <v>-1556.84</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>